--- a/Input/Dictionary/DictionaryR.xlsx
+++ b/Input/Dictionary/DictionaryR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/camila_francorestrepo_un_org/Documents/Documents/_Shared_Folder_HH_CFR/1_Forecast_Jordan/2_Forecast_simulation (Internal_codes_outputs)/Clean_codes/Dashboard/ESCWA_SP_FORECAST - Dynamic - github/Input/Dictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/camila_francorestrepo_un_org/Documents/Documents/GITHUB/ESCWA_SP_FORECAST_280825/ESCWA_SP_FORECAST_MISSION/Input/Dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{9392B433-770C-42C4-B04F-0BD5AECB978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6CD492-B223-4A82-9FF9-77A508554B35}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="13_ncr:1_{9392B433-770C-42C4-B04F-0BD5AECB978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADC6F4A-9136-4306-AC6B-75BC84718C20}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="980">
   <si>
     <t>Code</t>
   </si>
@@ -2439,15 +2439,9 @@
     <t>Inflation Shock (%)</t>
   </si>
   <si>
-    <t>صدمة التضخم (%)</t>
-  </si>
-  <si>
     <t>Annual inflation to stimulate a shock.</t>
   </si>
   <si>
-    <t>التضخم السنوي المُحفِّز للصدمة.</t>
-  </si>
-  <si>
     <t>User Parameters</t>
   </si>
   <si>
@@ -2463,9 +2457,6 @@
     <t>Current exchange rate of Jordanian Dinar to USD.</t>
   </si>
   <si>
-    <t>سعر الصرف الحالي للدينار الأردني مقابل الدولار الأمريكي.</t>
-  </si>
-  <si>
     <t>Simulation Instructions</t>
   </si>
   <si>
@@ -2499,9 +2490,6 @@
     <t>Key Metrics - Current Status</t>
   </si>
   <si>
-    <t>المقاييس الرئيسية - الوضع الحالي</t>
-  </si>
-  <si>
     <t>Number of UCT Beneficiaries</t>
   </si>
   <si>
@@ -2625,9 +2613,6 @@
     <t>Current Frequency UCT Beneficiaries</t>
   </si>
   <si>
-    <t>التكرار الحالي للمستفيدين من التحويلات النقدية</t>
-  </si>
-  <si>
     <t>Select Scenarios</t>
   </si>
   <si>
@@ -2742,22 +2727,12 @@
     <t>Scenarios Included</t>
   </si>
   <si>
-    <t>السيناريوهات المتضمنة</t>
-  </si>
-  <si>
     <t>Go back to main page</t>
   </si>
   <si>
     <t>Unemployment increased in x percentage points, e.g., from 10 % to 1 percentage points, i.e, 11%:</t>
   </si>
   <si>
-    <t>طريقة إدخال تأثير التوظيف</t>
-  </si>
-  <si>
-    <t>التغير في الناتج المحلي الإجمالي
-معدل نمو نصيب الفرد</t>
-  </si>
-  <si>
     <t>النقاط المئوية المضافة إلى معدل البطالة</t>
   </si>
   <si>
@@ -2773,27 +2748,18 @@
     <t>عدد المستفيدين من التحويلات النقدية غير المنتظمة</t>
   </si>
   <si>
-    <t>تكرار المستفيدين من التحويلات النقدية غير المنتظمة</t>
-  </si>
-  <si>
     <t>قيمة التكلفة الإجمالية (مليون دينار أردني)</t>
   </si>
   <si>
     <t>التكلفة الإجمالية (مليون دولار أمريكي)</t>
   </si>
   <si>
-    <t>تغير بالنسبة مئوية من اختبار بالوسائل غير المباشرة لقياس مستوى الدخل الحالية (PMT)</t>
-  </si>
-  <si>
     <t>الانتقال إلى الصفحة الرئيسية</t>
   </si>
   <si>
     <t>This dashboard simulates various kinds of shocks and estimates the number of households and costs needed to extend the UCT to all households in need. Scenarios run independently.</t>
   </si>
   <si>
-    <t>تحاكي لوحة المعلومات هذه أنواعًا مختلفة من الصدمات، وتُقدّر عدد الأسر والتكاليف اللازمة لتوسيع نطاق برنامج التحويلات النقدية الموحدة ليشمل جميع الأسر المحتاجة. يتم تشغيل السيناريوهات بشكل مستقل.</t>
-  </si>
-  <si>
     <t>Please click on "Run Simulation Button".</t>
   </si>
   <si>
@@ -2818,21 +2784,212 @@
     <t>Addresses the impact of a shock in GDP on (un)employment and how this affects households. To change the parameter, please enter the expected GDP growth to calculate employment impact automatically.</t>
   </si>
   <si>
+    <t>يُظهر الأسر التي تعيش تحت خط الفقر والموارد اللازمة.</t>
+  </si>
+  <si>
+    <t>تُحاكي تأثير التضخم على الأسر. يُمكن للمستخدم تغيير المعايير وفقًا لذلك.</t>
+  </si>
+  <si>
+    <t>يتناول هذا التحليل تأثير صدمة الناتج المحلي الإجمالي على التوظيف والبطالة، وكيف يؤثر ذلك على الأسر. لتغيير المعلمة، يُرجى إدخال نمو الناتج المحلي الإجمالي المتوقع لحساب تأثيره على التوظيف تلقائيًا.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Employment Impact Coefficient: </t>
+  </si>
+  <si>
+    <t>Addresses the direct impact of (un)employment on the income of households. To change the parameter, please directly enter the added percentage points to unemployment.</t>
+  </si>
+  <si>
+    <t>Employment Impact Input Method:</t>
+  </si>
+  <si>
+    <t>Change in GDP Growth per capita Rate</t>
+  </si>
+  <si>
+    <t>على سبيل المثال، ارتفع نصيب الفرد من الناتج المحلي الإجمالي بشكل غير متوقع بنسبة X%:</t>
+  </si>
+  <si>
+    <t>طريقة إدخال تأثير التوظيف:</t>
+  </si>
+  <si>
+    <t>التغير في معدل نمو الناتج المحلي الإجمالي للفرد</t>
+  </si>
+  <si>
+    <t>FORSAB</t>
+  </si>
+  <si>
+    <t>GDP Shock</t>
+  </si>
+  <si>
+    <t>Default value, latest poverty measure 2023 (between 0 and 100%).</t>
+  </si>
+  <si>
+    <t>عمان</t>
+  </si>
+  <si>
+    <t>إربد</t>
+  </si>
+  <si>
+    <t>GDP shock</t>
+  </si>
+  <si>
+    <t>صدمة الناتج المحلي الإجمالي بنسبة</t>
+  </si>
+  <si>
+    <t>percentage points</t>
+  </si>
+  <si>
+    <t>صدمة البطالة</t>
+  </si>
+  <si>
+    <t>(نقاط مئوية)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment shock </t>
+  </si>
+  <si>
+    <t>Variation relative to Current PMT (%)</t>
+  </si>
+  <si>
+    <t>x 1000 rate</t>
+  </si>
+  <si>
+    <t>معدل x 1000</t>
+  </si>
+  <si>
+    <t>Demographic parameters</t>
+  </si>
+  <si>
+    <t>Years to simulate</t>
+  </si>
+  <si>
+    <t>Share of children (0-14)  dependents as the total of dependents (0-14 and &gt;64 years old)</t>
+  </si>
+  <si>
+    <t>Proportion of children in the 0–14 age bracket who turn 14 each year.</t>
+  </si>
+  <si>
+    <t>Proportion of adults aged 64 (within the 15–64 working-age group) who retire that year</t>
+  </si>
+  <si>
+    <t>المعلمات الديموغرافية</t>
+  </si>
+  <si>
+    <t>عدد السنوات المراد محاكاتها</t>
+  </si>
+  <si>
+    <t>Number of deaths per 1,000 people in a year  (by default 3 x 1000 according to World Bank)</t>
+  </si>
+  <si>
+    <t>Households under PL after aging and change in mortality</t>
+  </si>
+  <si>
+    <t>Death rate change (crude)</t>
+  </si>
+  <si>
+    <t>Economic Parameters</t>
+  </si>
+  <si>
+    <t>المعلمات الاقتصادية</t>
+  </si>
+  <si>
+    <t>Demographic change</t>
+  </si>
+  <si>
+    <t>التغير الديموغرافي</t>
+  </si>
+  <si>
+    <t>Simulates the effect of aging: each year, changes in age lead to adjustments in the score. For example, when the household head turns 65. It also simulates the impact of changes in the crude death rate for the elderly (65+). By default, the rate is set at 3 per 1,000, based on World Bank country indicators, but the user can modify this value as needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change impact / Water Scarcity Shock: </t>
+  </si>
+  <si>
+    <t>Addresses the complexity of wwater scarcity impact due to climate change -estimations for 2021-2040 RICCAR/ESCWA for Jordan. The simulation reflects direct/indirect effects on assests ownership and income. To change the pre-defined parameters, click on "Go to Simulation Parameters".</t>
+  </si>
+  <si>
+    <t>يعالج تعقيدات أثر شح المياه الناتج عن تغيّر المناخ – التقديرات للفترة 2021-2040 وفقًا لـ RICCAR/الإسكوا للأردن. تعكس المحاكاة الآثار المباشرة وغير المباشرة على ملكية الأصول والدخل. لتغيير المعلمات المحددة مسبقًا، اضغط على «اذهب إلى معلمات المحاكاة</t>
+  </si>
+  <si>
+    <t>Climate change impact on water scarcity</t>
+  </si>
+  <si>
+    <t>أثر تغيّر المناخ على شح المياه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aging and mortality rate: </t>
+  </si>
+  <si>
+    <t>Demographics dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Forecasting of Social Assistance Costs in Jordan
+ </t>
+  </si>
+  <si>
+    <t>Dynamics of Aging and Mortality Rates: Comparison with the Baseline</t>
+  </si>
+  <si>
+    <t>Scenarios comparison</t>
+  </si>
+  <si>
+    <t>التنبؤ الاستراتيجي باحتياجات ميزانية المساعدات الاجتماعية في الأردن</t>
+  </si>
+  <si>
+    <t>تغير في معدل الوفيات (الخام)</t>
+  </si>
+  <si>
+    <t>عدد الوفيات في السنة لكل 1000 شخص (وفقًا للبنك الدولي فإن العدد يساوي ٣ بالألف للأردن)</t>
+  </si>
+  <si>
+    <t>الأسر التي تعيش تحت خط الفقر بعد تطبيق الصدمة الديموغرافية للشيخوخة والوفيات</t>
+  </si>
+  <si>
+    <t>نسبة الأطفال المعالين (من 0 إلى 14 سنة) من إجمالي السكان المعالين (من 0 إلى 14 سنة ومن 65 سنة فأكثر)</t>
+  </si>
+  <si>
+    <t>نسبة الأطفال في الفئة العمرية من 0 إلى 14 سنة الذين يبلغون 14 سنة كل عام</t>
+  </si>
+  <si>
+    <t>نسبة البالغين في سن 64 عامًا (ضمن الفئة العمرية النشطة من 15 إلى 64 سنة) الذين يتقاعدون خلال ذلك العام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الشيخوخة ومعدل الوفيات: </t>
+  </si>
+  <si>
+    <t>الديناميات الديموغرافية</t>
+  </si>
+  <si>
+    <t>ديناميات تطبيق وحدات الشيخوخة والوفيات: مقارنة مع الخط الأساسي</t>
+  </si>
+  <si>
+    <t>التضخم (%)</t>
+  </si>
+  <si>
+    <t>التضخم السنوي</t>
+  </si>
+  <si>
+    <t>صدمة في سوق العمل</t>
+  </si>
+  <si>
+    <t>أحدث تقدير لمعدل الفقر في عام ٢٠٢٣</t>
+  </si>
+  <si>
+    <t>الزيادة بالنقاط المئوية في معدل البطالة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحاكي هذه اللوحة أنواعًا مختلفة من الصدمات وتقدّر عدد الأسر المتضررة والتكلفة المطلوبة لتوسيع التحويل النقدي غير المشروط (UCT) لتشمل جميع الأسر المحتاجة. يتم تشغيل كل سيناريو بشكل مستقل </t>
+  </si>
+  <si>
+    <t>السيناريوهات المُدرجة</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>تغطية المتقدمين تحت خط الفقر:</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2841,24 +2998,76 @@
     </r>
   </si>
   <si>
-    <t>يُظهر الأسر التي تعيش تحت خط الفقر والموارد اللازمة.</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>صدمة التضخم:</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>تأثير تغير المناخ/صدمة شحّ المياه:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>معدل نمو الناتج المحلي:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>المقاييس الرئيسية</t>
+  </si>
+  <si>
+    <t>وتيرة حصول المستفيدين على التحويلات النقدية</t>
+  </si>
+  <si>
+    <t>التغير في النتائج مقارنةً بنسبة سيناريو اختبار الوسائل الحالي (PMT) %</t>
+  </si>
+  <si>
+    <t>قيمة التكلفة الإجمالية (مليون دولار أمريكي)</t>
+  </si>
+  <si>
+    <t>الوتيرة الحالية حصول المستفيدين على التحويلات النقدية</t>
+  </si>
+  <si>
+    <t>صدمة الناتج المحلي الإجمالي</t>
+  </si>
+  <si>
+    <t>يعالج التأثير المباشر للتوظيف أو البطالة على دخل الأسر. لتعديل المعامل، يرجى إدخال عدد النقاط المئوية المضافة لمعدل البطالة بشكل مباشر.</t>
+  </si>
+  <si>
+    <r>
+      <t>معلمات التأثير المباشر للتوظيف:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2867,279 +3076,32 @@
     </r>
   </si>
   <si>
-    <t>تُحاكي تأثير التضخم على الأسر. يُمكن للمستخدم تغيير المعايير وفقًا لذلك.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>معدل نمو الناتج المحلي الإجمالي:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>يتناول هذا التحليل تأثير صدمة الناتج المحلي الإجمالي على التوظيف والبطالة، وكيف يؤثر ذلك على الأسر. لتغيير المعلمة، يُرجى إدخال نمو الناتج المحلي الإجمالي المتوقع لحساب تأثيره على التوظيف تلقائيًا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Employment Impact Coefficient: </t>
-  </si>
-  <si>
-    <t>Addresses the direct impact of (un)employment on the income of households. To change the parameter, please directly enter the added percentage points to unemployment.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>معلمات التأثير المباشر للتوظيف:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>يتناول التأثير المباشر للتوظيف والبطالة على دخل الأسر. لتغيير المعلمات، يُرجى إدخال النقاط المئوية المضافة إلى البطالة مباشرةً.</t>
-  </si>
-  <si>
-    <t>Employment Impact Input Method:</t>
-  </si>
-  <si>
-    <t>Change in GDP Growth per capita Rate</t>
-  </si>
-  <si>
-    <t>على سبيل المثال، ارتفع نصيب الفرد من الناتج المحلي الإجمالي بشكل غير متوقع بنسبة X%:</t>
-  </si>
-  <si>
-    <t>ارتفعت البطالة بنسبة x من النقاط المئوية، على سبيل المثال، من 10% إلى 1 نقطة مئوية، أي 11%:</t>
-  </si>
-  <si>
-    <t>طريقة إدخال تأثير التوظيف:</t>
-  </si>
-  <si>
-    <t>التغير في معدل نمو الناتج المحلي الإجمالي للفرد</t>
-  </si>
-  <si>
-    <t>التباين بالنسبة للحالة الحالية %</t>
-  </si>
-  <si>
-    <t>FORSAB</t>
-  </si>
-  <si>
-    <t>GDP Shock</t>
-  </si>
-  <si>
-    <t>Default value, latest poverty measure 2023 (between 0 and 100%).</t>
-  </si>
-  <si>
-    <t>القيمة الافتراضية، أحدث مقياس للفقر لعام 2023 (بين 0 و100%).</t>
-  </si>
-  <si>
-    <t>عمان</t>
-  </si>
-  <si>
-    <t>إربد</t>
-  </si>
-  <si>
-    <t>GDP shock</t>
-  </si>
-  <si>
-    <t>صدمة الناتج المحلي الإجمالي بنسبة</t>
-  </si>
-  <si>
-    <t>percentage points</t>
-  </si>
-  <si>
-    <t>صدمة البطالة</t>
-  </si>
-  <si>
-    <t>(نقاط مئوية)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment shock </t>
-  </si>
-  <si>
-    <t>Variation relative to Current PMT (%)</t>
-  </si>
-  <si>
-    <t>x 1000 rate</t>
-  </si>
-  <si>
-    <t>معدل x 1000</t>
-  </si>
-  <si>
-    <t>Demographic parameters</t>
-  </si>
-  <si>
-    <t>Years to simulate</t>
-  </si>
-  <si>
-    <t>Share of children (0-14)  dependents as the total of dependents (0-14 and &gt;64 years old)</t>
-  </si>
-  <si>
-    <t>Proportion of children in the 0–14 age bracket who turn 14 each year.</t>
-  </si>
-  <si>
-    <t>Proportion of adults aged 64 (within the 15–64 working-age group) who retire that year</t>
-  </si>
-  <si>
-    <t>المعلمات الديموغرافية</t>
-  </si>
-  <si>
-    <t>عدد السنوات المراد محاكاتها</t>
-  </si>
-  <si>
-    <t>Number of deaths per 1,000 people in a year  (by default 3 x 1000 according to World Bank)</t>
-  </si>
-  <si>
-    <t>Households under PL after aging and change in mortality</t>
-  </si>
-  <si>
-    <t>Death rate change (crude)</t>
-  </si>
-  <si>
-    <t>Economic Parameters</t>
-  </si>
-  <si>
-    <t>المعلمات الاقتصادية</t>
-  </si>
-  <si>
-    <t>Demographic change</t>
-  </si>
-  <si>
-    <t>التغير الديموغرافي</t>
-  </si>
-  <si>
-    <t>Simulates the effect of aging: each year, changes in age lead to adjustments in the score. For example, when the household head turns 65. It also simulates the impact of changes in the crude death rate for the elderly (65+). By default, the rate is set at 3 per 1,000, based on World Bank country indicators, but the user can modify this value as needed</t>
-  </si>
-  <si>
-    <t>يحاكي أثر الشيخوخة: ففي كل عام تؤدي التغيرات في العمر إلى تعديلات في النتيجة. على سبيل المثال، عندما يبلغ رب الأسرة سن 65 عامًا. كما يحاكي أثر التغيرات في معدل الوفيات الخام لكبار السن (65 سنة فأكثر). افتراضيًا، يُحدد المعدل عند 3 لكل 1000 استنادًا إلى مؤشرات البنك الدولي القطرية، لكن يمكن للمستخدم تعديله حسب الحاجة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate change impact / Water Scarcity Shock: </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>تأثير تغير المناخ/صدمة شحّ المياه:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Addresses the complexity of wwater scarcity impact due to climate change -estimations for 2021-2040 RICCAR/ESCWA for Jordan. The simulation reflects direct/indirect effects on assests ownership and income. To change the pre-defined parameters, click on "Go to Simulation Parameters".</t>
-  </si>
-  <si>
-    <t>يعالج تعقيدات أثر شح المياه الناتج عن تغيّر المناخ – التقديرات للفترة 2021-2040 وفقًا لـ RICCAR/الإسكوا للأردن. تعكس المحاكاة الآثار المباشرة وغير المباشرة على ملكية الأصول والدخل. لتغيير المعلمات المحددة مسبقًا، اضغط على «اذهب إلى معلمات المحاكاة</t>
-  </si>
-  <si>
-    <t>Climate change impact on water scarcity</t>
-  </si>
-  <si>
-    <t>أثر تغيّر المناخ على شح المياه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aging and mortality rate: </t>
-  </si>
-  <si>
-    <t>Demographics dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategic Forecasting of Social Assistance Costs in Jordan
- </t>
-  </si>
-  <si>
-    <t>Dynamics of Aging and Mortality Rates: Comparison with the Baseline</t>
-  </si>
-  <si>
-    <t>Scenarios comparison</t>
-  </si>
-  <si>
-    <t>UCT Beneficiary Value by Scenario (Million USD)</t>
-  </si>
-  <si>
-    <t>قيمة المستفيدين من التحويلات النقدية حسب السيناري(مليون دولار أمريكي)</t>
-  </si>
-  <si>
-    <t>التنبؤ الاستراتيجي باحتياجات ميزانية المساعدات الاجتماعية في الأردن</t>
-  </si>
-  <si>
-    <t>تغير في معدل الوفيات (الخام)</t>
-  </si>
-  <si>
-    <t>عدد الوفيات في السنة لكل 1000 شخص (وفقًا للبنك الدولي فإن العدد يساوي ٣ بالألف للأردن)</t>
-  </si>
-  <si>
-    <t>الأسر التي تعيش تحت خط الفقر بعد تطبيق الصدمة الديموغرافية للشيخوخة والوفيات</t>
-  </si>
-  <si>
-    <t>نسبة الأطفال المعالين (من 0 إلى 14 سنة) من إجمالي السكان المعالين (من 0 إلى 14 سنة ومن 65 سنة فأكثر)</t>
-  </si>
-  <si>
-    <t>نسبة الأطفال في الفئة العمرية من 0 إلى 14 سنة الذين يبلغون 14 سنة كل عام</t>
-  </si>
-  <si>
-    <t>نسبة البالغين في سن 64 عامًا (ضمن الفئة العمرية النشطة من 15 إلى 64 سنة) الذين يتقاعدون خلال ذلك العام</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الشيخوخة ومعدل الوفيات: </t>
-  </si>
-  <si>
-    <t>الديناميات الديموغرافية</t>
-  </si>
-  <si>
-    <t>ديناميات تطبيق وحدات الشيخوخة والوفيات: مقارنة مع الخط الأساسي</t>
-  </si>
-  <si>
-    <t>إجمالي قيمة مستحقات المستفيدين من التحويل النقدي الشامل حسب السيناريو (بملايين الدولارات الأمريكية)</t>
+    <t>ارتفع معدل البطالة بمقدار X نقاط مئوية — على سبيل المثال، من 10% إلى 11% (زيادة بمقدار نقطة مئوية واحدة).</t>
+  </si>
+  <si>
+    <t>يُحاكي تأثير التقدم في العمر: حيث تؤدي التغيرات السنوية في العمر إلى تعديل في الدخل، مثل بلوغ رب الأسرة سن 65. كما يحاكي التأثير الناتج عن التغيرات في معدل الوفيات لدى كبار السن (65 سنة فما فوق). استنادًا إلى مؤشرات البنك الدولي،  يُحدد المعدل عند 3 حالات وفاة لكل 1000 شخص، ولكن يمكن للمستخدم تعديل هذه القيمة حسب الحاجة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدد المستفيدين من التحويلات النقدية </t>
+  </si>
+  <si>
+    <t>التغير مقارنةً بنسبة اختبار الوسائل الحالي (%)</t>
+  </si>
+  <si>
+    <t>UCT Beneficiary Value by Scenario (Million JOD)</t>
+  </si>
+  <si>
+    <t>إجمالي قيمة مستحقات المستفيدين من التحويل النقدي الشامل حسب السيناريو (JOD M)</t>
+  </si>
+  <si>
+    <t>قيمة المستفيدين من التحويلات النقدية حسب السيناري (JOD M)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3230,8 +3192,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3306,13 +3295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3386,7 +3381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3438,15 +3433,36 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3775,22 +3791,22 @@
       <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="29.08203125" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" customWidth="1"/>
-    <col min="5" max="5" width="22.58203125" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
-    <col min="7" max="7" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3828,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3866,7 +3882,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3904,7 +3920,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -3942,7 +3958,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -3980,7 +3996,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -4018,7 +4034,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -4056,7 +4072,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -4094,7 +4110,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -4132,7 +4148,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -4170,7 +4186,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -4208,7 +4224,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
@@ -4246,7 +4262,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
@@ -4284,7 +4300,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -4322,7 +4338,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -4360,7 +4376,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -4436,7 +4452,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>74</v>
       </c>
@@ -4474,7 +4490,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>77</v>
       </c>
@@ -4512,7 +4528,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -4550,7 +4566,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>83</v>
       </c>
@@ -4588,7 +4604,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>86</v>
       </c>
@@ -4626,7 +4642,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>89</v>
       </c>
@@ -4664,7 +4680,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>92</v>
       </c>
@@ -4702,7 +4718,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>95</v>
       </c>
@@ -4740,7 +4756,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>98</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>101</v>
       </c>
@@ -4816,7 +4832,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>104</v>
       </c>
@@ -4854,7 +4870,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -4892,7 +4908,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
@@ -4930,7 +4946,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
@@ -4968,7 +4984,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>114</v>
       </c>
@@ -5006,7 +5022,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>117</v>
       </c>
@@ -5044,7 +5060,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>119</v>
       </c>
@@ -5082,7 +5098,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>122</v>
       </c>
@@ -5120,7 +5136,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>124</v>
       </c>
@@ -5158,7 +5174,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>127</v>
       </c>
@@ -5196,7 +5212,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>129</v>
       </c>
@@ -5234,7 +5250,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>132</v>
       </c>
@@ -5272,7 +5288,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>135</v>
       </c>
@@ -5310,7 +5326,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>137</v>
       </c>
@@ -5348,7 +5364,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>140</v>
       </c>
@@ -5386,7 +5402,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>143</v>
       </c>
@@ -5414,7 +5430,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>146</v>
       </c>
@@ -5442,7 +5458,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>148</v>
       </c>
@@ -5470,7 +5486,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>151</v>
       </c>
@@ -5498,7 +5514,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>154</v>
       </c>
@@ -5526,7 +5542,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>157</v>
       </c>
@@ -5549,7 +5565,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>160</v>
       </c>
@@ -5582,7 +5598,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>166</v>
       </c>
@@ -5610,7 +5626,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>172</v>
       </c>
@@ -5643,7 +5659,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>178</v>
       </c>
@@ -5677,7 +5693,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>181</v>
       </c>
@@ -5713,7 +5729,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>182</v>
       </c>
@@ -5748,7 +5764,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>183</v>
       </c>
@@ -5783,7 +5799,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>184</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>185</v>
       </c>
@@ -5853,7 +5869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>186</v>
       </c>
@@ -5888,7 +5904,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>187</v>
       </c>
@@ -5923,7 +5939,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>188</v>
       </c>
@@ -5958,7 +5974,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>189</v>
       </c>
@@ -5993,7 +6009,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>190</v>
       </c>
@@ -6028,7 +6044,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>191</v>
       </c>
@@ -6063,7 +6079,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>192</v>
       </c>
@@ -6098,7 +6114,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>193</v>
       </c>
@@ -6133,7 +6149,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>194</v>
       </c>
@@ -6168,7 +6184,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>195</v>
       </c>
@@ -6203,7 +6219,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>196</v>
       </c>
@@ -6238,7 +6254,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>197</v>
       </c>
@@ -6273,7 +6289,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>198</v>
       </c>
@@ -6308,7 +6324,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>199</v>
       </c>
@@ -6343,7 +6359,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>200</v>
       </c>
@@ -6378,7 +6394,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>201</v>
       </c>
@@ -6413,7 +6429,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>202</v>
       </c>
@@ -6448,7 +6464,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>203</v>
       </c>
@@ -6483,7 +6499,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>204</v>
       </c>
@@ -6518,7 +6534,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>205</v>
       </c>
@@ -6554,7 +6570,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>206</v>
       </c>
@@ -6590,7 +6606,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>207</v>
       </c>
@@ -6626,7 +6642,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>208</v>
       </c>
@@ -6662,7 +6678,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>209</v>
       </c>
@@ -6698,7 +6714,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>210</v>
       </c>
@@ -6734,7 +6750,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>211</v>
       </c>
@@ -6770,7 +6786,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>212</v>
       </c>
@@ -6806,7 +6822,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>213</v>
       </c>
@@ -6842,7 +6858,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>214</v>
       </c>
@@ -6878,7 +6894,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>215</v>
       </c>
@@ -6913,7 +6929,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>216</v>
       </c>
@@ -6948,7 +6964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>217</v>
       </c>
@@ -6983,7 +6999,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>218</v>
       </c>
@@ -7018,7 +7034,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>219</v>
       </c>
@@ -7053,7 +7069,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>220</v>
       </c>
@@ -7088,7 +7104,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>221</v>
       </c>
@@ -7123,7 +7139,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>222</v>
       </c>
@@ -7158,7 +7174,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>223</v>
       </c>
@@ -7193,7 +7209,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>224</v>
       </c>
@@ -7228,7 +7244,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>225</v>
       </c>
@@ -7263,7 +7279,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>226</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>231</v>
       </c>
@@ -7339,7 +7355,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>461</v>
       </c>
@@ -7377,7 +7393,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>462</v>
       </c>
@@ -7415,7 +7431,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>243</v>
       </c>
@@ -7453,7 +7469,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>246</v>
       </c>
@@ -7491,7 +7507,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>249</v>
       </c>
@@ -7549,21 +7565,21 @@
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.58203125" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="44.58203125" customWidth="1"/>
-    <col min="29" max="29" width="27.58203125" customWidth="1"/>
-    <col min="33" max="33" width="25.58203125" customWidth="1"/>
+    <col min="28" max="28" width="44.625" customWidth="1"/>
+    <col min="29" max="29" width="27.625" customWidth="1"/>
+    <col min="33" max="33" width="25.625" customWidth="1"/>
     <col min="53" max="53" width="15.5" customWidth="1"/>
     <col min="54" max="54" width="44.25" customWidth="1"/>
-    <col min="55" max="55" width="37.08203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:65" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +7713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7828,7 +7844,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7962,7 +7978,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -8078,7 +8094,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -8197,7 +8213,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -8294,7 +8310,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -8370,7 +8386,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8446,7 +8462,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8522,7 +8538,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8607,7 +8623,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="J11" s="15" t="s">
         <v>256</v>
       </c>
@@ -8685,7 +8701,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="J12" s="15" t="s">
         <v>277</v>
       </c>
@@ -8753,7 +8769,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="J13" s="15" t="s">
         <v>301</v>
       </c>
@@ -8821,7 +8837,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="J14" s="15" t="s">
         <v>318</v>
       </c>
@@ -8877,7 +8893,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:65" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U15" s="1" t="s">
         <v>0</v>
       </c>
@@ -8938,7 +8954,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="U16" s="3">
         <v>1</v>
       </c>
@@ -8999,7 +9015,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="17" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:60" x14ac:dyDescent="0.25">
       <c r="U17" s="3">
         <v>2</v>
       </c>
@@ -9060,7 +9076,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="18" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:60" x14ac:dyDescent="0.25">
       <c r="U18" s="3">
         <v>3</v>
       </c>
@@ -9121,7 +9137,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="19" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:60" x14ac:dyDescent="0.25">
       <c r="U19" s="3">
         <v>4</v>
       </c>
@@ -9182,7 +9198,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="20" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:60" x14ac:dyDescent="0.25">
       <c r="U20" s="3">
         <v>5</v>
       </c>
@@ -9243,7 +9259,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="21" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>0</v>
       </c>
@@ -9316,7 +9332,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="22" spans="8:60" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>10</v>
       </c>
@@ -9380,7 +9396,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="23" spans="8:60" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>20</v>
       </c>
@@ -9446,7 +9462,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="24" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>30</v>
       </c>
@@ -9510,7 +9526,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>40</v>
       </c>
@@ -9580,7 +9596,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="26" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>50</v>
       </c>
@@ -9650,7 +9666,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="27" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:60" x14ac:dyDescent="0.25">
       <c r="P27" t="s">
         <v>581</v>
       </c>
@@ -9714,7 +9730,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="28" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:60" x14ac:dyDescent="0.25">
       <c r="P28" t="s">
         <v>583</v>
       </c>
@@ -9754,7 +9770,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="29" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:60" x14ac:dyDescent="0.25">
       <c r="P29" t="s">
         <v>585</v>
       </c>
@@ -9794,7 +9810,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:60" x14ac:dyDescent="0.25">
       <c r="P30" t="s">
         <v>587</v>
       </c>
@@ -9828,7 +9844,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="31" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:60" x14ac:dyDescent="0.25">
       <c r="P31" t="s">
         <v>589</v>
       </c>
@@ -9862,7 +9878,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="8:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:60" x14ac:dyDescent="0.25">
       <c r="P32" t="s">
         <v>591</v>
       </c>
@@ -9896,7 +9912,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="33" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="33" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P33" s="17" t="s">
         <v>593</v>
       </c>
@@ -9930,7 +9946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="34" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P34" t="s">
         <v>595</v>
       </c>
@@ -9964,7 +9980,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="35" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="35" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P35" t="s">
         <v>597</v>
       </c>
@@ -9998,7 +10014,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="36" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="36" spans="16:55" x14ac:dyDescent="0.25">
       <c r="P36" t="s">
         <v>599</v>
       </c>
@@ -10032,7 +10048,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="37" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="37" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z37" s="3">
         <v>36</v>
       </c>
@@ -10060,7 +10076,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="38" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="38" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z38" s="3">
         <v>37</v>
       </c>
@@ -10088,7 +10104,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="39" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="39" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z39" s="3">
         <v>38</v>
       </c>
@@ -10116,7 +10132,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="40" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z40" s="3">
         <v>39</v>
       </c>
@@ -10144,7 +10160,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="41" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="41" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z41" s="3">
         <v>40</v>
       </c>
@@ -10172,7 +10188,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="42" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="42" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z42" s="3">
         <v>41</v>
       </c>
@@ -10188,7 +10204,7 @@
       <c r="AE42" s="6"/>
       <c r="AF42" s="6"/>
     </row>
-    <row r="43" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="43" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z43" s="3">
         <v>42</v>
       </c>
@@ -10204,7 +10220,7 @@
       <c r="AE43" s="6"/>
       <c r="AF43" s="6"/>
     </row>
-    <row r="44" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="44" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z44" s="3">
         <v>43</v>
       </c>
@@ -10220,7 +10236,7 @@
       <c r="AE44" s="6"/>
       <c r="AF44" s="6"/>
     </row>
-    <row r="45" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="45" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z45" s="3">
         <v>44</v>
       </c>
@@ -10236,7 +10252,7 @@
       <c r="AE45" s="6"/>
       <c r="AF45" s="6"/>
     </row>
-    <row r="46" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="46" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z46" s="3">
         <v>45</v>
       </c>
@@ -10252,7 +10268,7 @@
       <c r="AE46" s="6"/>
       <c r="AF46" s="6"/>
     </row>
-    <row r="47" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="47" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z47" s="3">
         <v>46</v>
       </c>
@@ -10268,7 +10284,7 @@
       <c r="AE47" s="6"/>
       <c r="AF47" s="6"/>
     </row>
-    <row r="48" spans="16:55" x14ac:dyDescent="0.35">
+    <row r="48" spans="16:55" x14ac:dyDescent="0.25">
       <c r="Z48" s="3">
         <v>47</v>
       </c>
@@ -10284,7 +10300,7 @@
       <c r="AE48" s="6"/>
       <c r="AF48" s="6"/>
     </row>
-    <row r="49" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z49" s="3">
         <v>48</v>
       </c>
@@ -10300,7 +10316,7 @@
       <c r="AE49" s="6"/>
       <c r="AF49" s="6"/>
     </row>
-    <row r="50" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z50" s="3">
         <v>49</v>
       </c>
@@ -10316,155 +10332,155 @@
       <c r="AE50" s="6"/>
       <c r="AF50" s="6"/>
     </row>
-    <row r="51" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE51" s="6"/>
       <c r="AF51" s="6"/>
     </row>
-    <row r="52" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
     </row>
-    <row r="53" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE53" s="6"/>
       <c r="AF53" s="6"/>
     </row>
-    <row r="54" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE54" s="6"/>
       <c r="AF54" s="6"/>
     </row>
-    <row r="55" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE55" s="6"/>
       <c r="AF55" s="6"/>
     </row>
-    <row r="56" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
     </row>
-    <row r="57" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
     </row>
-    <row r="58" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE58" s="6"/>
       <c r="AF58" s="6"/>
     </row>
-    <row r="59" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE59" s="6"/>
       <c r="AF59" s="6"/>
     </row>
-    <row r="60" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE60" s="6"/>
       <c r="AF60" s="6"/>
     </row>
-    <row r="61" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
     </row>
-    <row r="62" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
     </row>
-    <row r="63" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE63" s="6"/>
       <c r="AF63" s="6"/>
     </row>
-    <row r="64" spans="26:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AE64" s="6"/>
       <c r="AF64" s="6"/>
     </row>
-    <row r="65" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE65" s="6"/>
       <c r="AF65" s="6"/>
     </row>
-    <row r="66" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE66" s="6"/>
       <c r="AF66" s="6"/>
     </row>
-    <row r="67" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
     </row>
-    <row r="68" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE68" s="6"/>
       <c r="AF68" s="6"/>
     </row>
-    <row r="69" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE69" s="6"/>
       <c r="AF69" s="6"/>
     </row>
-    <row r="70" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE70" s="6"/>
       <c r="AF70" s="6"/>
     </row>
-    <row r="71" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE71" s="6"/>
       <c r="AF71" s="6"/>
     </row>
-    <row r="72" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE72" s="6"/>
       <c r="AF72" s="6"/>
     </row>
-    <row r="73" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
     </row>
-    <row r="74" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE74" s="6"/>
       <c r="AF74" s="6"/>
     </row>
-    <row r="75" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE75" s="6"/>
       <c r="AF75" s="6"/>
     </row>
-    <row r="76" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE76" s="6"/>
       <c r="AF76" s="6"/>
     </row>
-    <row r="77" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE77" s="6"/>
       <c r="AF77" s="6"/>
     </row>
-    <row r="78" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE78" s="6"/>
       <c r="AF78" s="6"/>
     </row>
-    <row r="79" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE79" s="6"/>
       <c r="AF79" s="6"/>
     </row>
-    <row r="80" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE80" s="6"/>
       <c r="AF80" s="6"/>
     </row>
-    <row r="81" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE81" s="6"/>
       <c r="AF81" s="6"/>
     </row>
-    <row r="82" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE82" s="6"/>
       <c r="AF82" s="6"/>
     </row>
-    <row r="83" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE83" s="6"/>
       <c r="AF83" s="6"/>
     </row>
-    <row r="84" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
     </row>
-    <row r="85" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE85" s="6"/>
       <c r="AF85" s="6"/>
     </row>
-    <row r="86" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE86" s="6"/>
       <c r="AF86" s="6"/>
     </row>
-    <row r="87" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE87" s="6"/>
       <c r="AF87" s="6"/>
     </row>
-    <row r="88" spans="31:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="31:32" x14ac:dyDescent="0.25">
       <c r="AE88" s="6"/>
       <c r="AF88" s="6"/>
     </row>
@@ -10481,1640 +10497,1660 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C3DA9F-3456-45B7-8E23-4A24415F8847}">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135:C157"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="19"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="109.125" customWidth="1"/>
+    <col min="3" max="3" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>252</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>775</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="28" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>962</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>941</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>777</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="28" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>948</v>
-      </c>
-      <c r="C5" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>929</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>779</v>
       </c>
-      <c r="C6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" s="28" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>781</v>
-      </c>
-      <c r="C7" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>780</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>874</v>
-      </c>
-      <c r="C8" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>869</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>877</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>872</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>783</v>
-      </c>
-      <c r="C10" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>875</v>
-      </c>
-      <c r="C11" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>870</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>925</v>
-      </c>
-      <c r="C12" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>785</v>
-      </c>
-      <c r="C13" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>783</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>787</v>
-      </c>
-      <c r="C14" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>878</v>
-      </c>
-      <c r="C15" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>873</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>789</v>
-      </c>
-      <c r="C16" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>791</v>
-      </c>
-      <c r="C17" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>886</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>880</v>
-      </c>
-      <c r="C19" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>875</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>889</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>891</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>954</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>934</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>904</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>893</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>793</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>790</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>795</v>
-      </c>
-      <c r="C25" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>792</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>797</v>
-      </c>
-      <c r="C26" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>794</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>799</v>
-      </c>
-      <c r="C27" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>796</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>801</v>
-      </c>
-      <c r="C28" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>797</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>803</v>
-      </c>
-      <c r="C29" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>799</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C30" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>801</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>807</v>
-      </c>
-      <c r="C31" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>803</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>809</v>
-      </c>
-      <c r="C32" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>805</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>811</v>
-      </c>
-      <c r="C33" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>807</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>813</v>
-      </c>
-      <c r="C34" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>815</v>
-      </c>
-      <c r="C35" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>811</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>817</v>
-      </c>
-      <c r="C36" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>819</v>
-      </c>
-      <c r="C37" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>821</v>
-      </c>
-      <c r="C38" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>817</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>823</v>
-      </c>
-      <c r="C40" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>819</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C41" s="27"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>824</v>
-      </c>
-      <c r="C42" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>820</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>825</v>
-      </c>
-      <c r="C44" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>826</v>
-      </c>
-      <c r="C45" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>822</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>827</v>
-      </c>
-      <c r="C46" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>823</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>828</v>
-      </c>
-      <c r="C47" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>824</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>829</v>
-      </c>
-      <c r="C48" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>825</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>830</v>
-      </c>
-      <c r="C49" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>826</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>831</v>
-      </c>
-      <c r="C50" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>827</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>832</v>
-      </c>
-      <c r="C51" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>833</v>
-      </c>
-      <c r="C52" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>834</v>
-      </c>
-      <c r="C53" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>958</v>
-      </c>
-      <c r="C54" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>937</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>835</v>
-      </c>
-      <c r="C56" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>837</v>
-      </c>
-      <c r="C57" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>833</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>839</v>
-      </c>
-      <c r="C58" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>835</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>841</v>
-      </c>
-      <c r="C59" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>843</v>
-      </c>
-      <c r="C60" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>825</v>
-      </c>
-      <c r="C61" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>234</v>
       </c>
-      <c r="C62" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C62" s="28" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>832</v>
-      </c>
-      <c r="C63" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>833</v>
-      </c>
-      <c r="C64" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>834</v>
-      </c>
-      <c r="C65" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>958</v>
-      </c>
-      <c r="C66" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>937</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>848</v>
-      </c>
-      <c r="C67" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>843</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>965</v>
-      </c>
-      <c r="C68" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>977</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="27"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>850</v>
-      </c>
-      <c r="C70" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>845</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>852</v>
-      </c>
-      <c r="C71" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>847</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>854</v>
-      </c>
-      <c r="C72" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>849</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>856</v>
-      </c>
-      <c r="C73" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>851</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>858</v>
-      </c>
-      <c r="C74" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>853</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>860</v>
-      </c>
-      <c r="C75" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>855</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>862</v>
-      </c>
-      <c r="C76" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>857</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>864</v>
-      </c>
-      <c r="C77" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>859</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>866</v>
-      </c>
-      <c r="C79" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>861</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>868</v>
-      </c>
-      <c r="C80" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>863</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>870</v>
-      </c>
-      <c r="C81" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>865</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>872</v>
-      </c>
-      <c r="C82" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>867</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C83" s="27"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>882</v>
-      </c>
-      <c r="C84" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>876</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="27"/>
+    </row>
+    <row r="86" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>827</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>828</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>958</v>
-      </c>
-      <c r="C90" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>937</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>906</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C92" s="27"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>898</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>901</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>890</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>903</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>892</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>956</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>935</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>905</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>894</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>913</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>899</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C99" s="27"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C100" s="27"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>879</v>
-      </c>
-      <c r="C101" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>874</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>101</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="C102" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>898</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>883</v>
-      </c>
-      <c r="C103" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>877</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>103</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>950</v>
-      </c>
-      <c r="C104" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>931</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>952</v>
-      </c>
-      <c r="C105" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>933</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="27"/>
+    </row>
+    <row r="107" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>106</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>916</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>900</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26">
         <v>107</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>901</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26">
         <v>108</v>
       </c>
       <c r="B109" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="C109" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="C109" s="26" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26">
         <v>109</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>905</v>
+      </c>
+      <c r="C110" s="38"/>
+    </row>
+    <row r="111" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C111" s="38"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="27"/>
+    </row>
+    <row r="113" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26">
         <v>112</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>825</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26">
         <v>113</v>
       </c>
       <c r="B114" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26">
         <v>114</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>826</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>822</v>
+      </c>
+      <c r="C115" s="37" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26">
         <v>115</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>823</v>
+      </c>
+      <c r="C116" s="37" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26">
         <v>116</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>935</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+        <v>916</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26">
         <v>117</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>829</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>825</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>118</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>830</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>826</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C120" s="27"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>120</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="28" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>121</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="C122" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C122" s="28" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>122</v>
       </c>
       <c r="B123" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>123</v>
       </c>
       <c r="B124" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>124</v>
       </c>
       <c r="B125" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C125" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C125" s="28" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>125</v>
       </c>
       <c r="B126" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>126</v>
       </c>
       <c r="B127" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>127</v>
       </c>
       <c r="B128" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>128</v>
       </c>
       <c r="B129" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>129</v>
       </c>
       <c r="B130" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="28" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>130</v>
       </c>
       <c r="B131" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
         <v>131</v>
       </c>
       <c r="B132" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C133" s="27"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="27"/>
+    </row>
+    <row r="135" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>134</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>910</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>135</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="C136" s="31" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>830</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>136</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>934</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>915</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+        <v>912</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>138</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>947</v>
-      </c>
-      <c r="C139" s="29" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>928</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
         <v>139</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>945</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>926</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
         <v>140</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>946</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+        <v>927</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
         <v>141</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="C142" s="29" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>917</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>142</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="C143" s="29" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+        <v>919</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>143</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>920</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
         <v>144</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>940</v>
-      </c>
-      <c r="C145" s="29" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>921</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
         <v>145</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>941</v>
-      </c>
-      <c r="C146" s="29" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>922</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
         <v>146</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="C147" s="29" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>923</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>147</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="C148" s="29" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>919</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>960</v>
-      </c>
-      <c r="C149" s="29" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+        <v>939</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>149</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>940</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
         <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>963</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>942</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
         <v>151</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>943</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>848</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+        <v>843</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>965</v>
-      </c>
-      <c r="C154" s="29" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C154" s="28" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>815</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>811</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>824</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>820</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>825</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>889</v>
+        <v>821</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -12123,6 +12159,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Deliverables xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+    <WorkDocuments xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+    <Location xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+    <Budgettype xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4319c2be-8a3b-42a7-9d50-835990ee4f5f" xsi:nil="true"/>
+    <Areas xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+    <Region xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB325EAE9932D42AFE1BED6D3AA7B53" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afcec4962220a39992b380766a61426">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b" xmlns:ns3="4319c2be-8a3b-42a7-9d50-835990ee4f5f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1603fa489d1728086a32f45df1c7a04" ns2:_="" ns3:_="">
     <xsd:import namespace="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
@@ -12484,34 +12547,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A71F7E-A6E9-4577-A5AF-FC13D4BDF41B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
+    <ds:schemaRef ds:uri="4319c2be-8a3b-42a7-9d50-835990ee4f5f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Deliverables xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-    <WorkDocuments xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-    <Location xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-    <Budgettype xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4319c2be-8a3b-42a7-9d50-835990ee4f5f" xsi:nil="true"/>
-    <Areas xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-    <Region xmlns="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FCB419-EDBA-41AE-BF5E-C818C5DDF1BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA4594B-47DD-4F25-B165-105EE7E2E764}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12528,23 +12583,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FCB419-EDBA-41AE-BF5E-C818C5DDF1BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A71F7E-A6E9-4577-A5AF-FC13D4BDF41B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7cc73a97-c62d-4edc-a0d6-e9f49f0e619b"/>
-    <ds:schemaRef ds:uri="4319c2be-8a3b-42a7-9d50-835990ee4f5f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>